--- a/biology/Histoire de la zoologie et de la botanique/William_John_Sinclair/William_John_Sinclair.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_John_Sinclair/William_John_Sinclair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">  William John Sinclair  est un géologue et paléontologue américain. Il est né le 13 mai 1877 à San Francisco et mort le 25 mars 1935 à Princeton, dans le New Jersey.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son diplôme en 1904 de l’université de Californie à Berkeley. Il fait ensuite sa carrière académique à Princeton et devient professeur de paléozoologie en 1930. Il dirige entre autres le musée paléontologique de Princeton à partir de 1927, un département qui ferma en 1985 et résulta en la donation des collections de fossiles de l’université de Princeton au muséum d'histoire naturelle Peabody de l'université Yale.
 </t>
@@ -542,7 +556,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il décrivit un nombre de nouvelles espèces fossiles dont Protapirus robustus et Mylagaulodon angulatus. Il dirigea des expéditions, en particulier à Bighorn Basin dans le Wyoming, à Snake Creek dans le Nebraska et dans les White River Badlands du Dakota du Sud.
 </t>
